--- a/similarities/split_global/harmonic_similarity_timestamps_37.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,724 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:12.260000', '0:00:17.900000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:20.200000', '0:00:22.820000')]</t>
+          <t>('0:00:20.860000', '0:00:27.060000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=12.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=20.86</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:06.940000', '0:00:17.120000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'G']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:38.714036', '0:00:44.240385')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:12.648000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=38.714036']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:17.580000')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:23.420000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:31.840000', '0:01:43.940000'), ('0:01:41.100000', '0:01:54.020000')]</t>
+          <t>('0:00:32.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:46.960000', '0:00:50.740000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:00:27.600000', '0:00:54.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=91.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=101.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000'), ('0:00:01.640000', '0:00:05.020000')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=1.64']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+          <t>('0:00:07.284457', '0:00:20.438561')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:33.260000', '0:00:35.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:35.620000', '0:00:42.440000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=33.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=35.62</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000'), ('0:00:00.220000', '0:00:03.440000')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:00:50.730362', '0:00:54.666145')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:15.530000', '0:00:16.900000')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=50.730362</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_100</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:17.340000', '0:02:20.480000')]</t>
+          <t>('0:00:01.640000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:05.080000', '0:00:23.560000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=137.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=5.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:03.044470', '0:00:16.933718')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000')]</t>
+          <t>('0:04:21.828000', '0:04:38.542000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:01:58.780000', '0:02:02.740000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:25.260000', '0:00:52.580000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=118.78</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1200,6 +1210,8 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
